--- a/colloquial_sql/data/health_prompts.xlsx
+++ b/colloquial_sql/data/health_prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayrussell/Desktop/projects/colloquial_sql/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB5E5F-393E-584F-87D0-048E6F8462FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83397A40-E36E-F24F-925B-2E5E0DD05C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5260" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>prompt</t>
   </si>
@@ -97,12 +97,6 @@
     <t>I need to find out the last visit date for each patient.</t>
   </si>
   <si>
-    <t>Can you show me the patients who have visited the clinic in the last 30 days?</t>
-  </si>
-  <si>
-    <t>SELECT patient_id FROM clinic_info WHERE last_visit_date &gt;= (CURRENT_DATE - INTERVAL '30 days');</t>
-  </si>
-  <si>
     <t>I need to know the total number of visits for each patient.</t>
   </si>
   <si>
@@ -118,18 +112,9 @@
     <t>Retrieve the email addresses of patients who have not visited the clinic since 2019.</t>
   </si>
   <si>
-    <t>Retrieve the phone numbers of patients who visited the clinic for the first time in 2021.</t>
-  </si>
-  <si>
     <t>SELECT phone FROM patients WHERE id IN (SELECT patient_id FROM clinic_info WHERE date_of_registration &gt;= '2021-01-01' AND date_of_registration &lt;= '2021-12-31');</t>
   </si>
   <si>
-    <t>Get the medical record numbers of patients who have visited the clinic more than 10 times.</t>
-  </si>
-  <si>
-    <t>SELECT medical_record_number FROM clinic_info WHERE number_of_visits &gt; 10;</t>
-  </si>
-  <si>
     <t>Find the email addresses of patients who last visited the clinic in 2020.</t>
   </si>
   <si>
@@ -160,12 +145,6 @@
     <t>SELECT first_name, last_name FROM patients WHERE id IN (SELECT patient_id FROM clinic_info WHERE number_of_visits = 1);</t>
   </si>
   <si>
-    <t>Retrieve the phone numbers of patients who have visited the clinic more than 20 times.</t>
-  </si>
-  <si>
-    <t>SELECT phone FROM patients WHERE id IN (SELECT patient_id FROM clinic_info WHERE number_of_visits &gt; 20);</t>
-  </si>
-  <si>
     <t>Find the email addresses of patients who have not visited the clinic in the last year.</t>
   </si>
   <si>
@@ -322,15 +301,6 @@
     <t>Can you provide me with the last visit date for a patient with the email address emilydavis@example.com?</t>
   </si>
   <si>
-    <t>Can you provide me with the medical record number of a patient named Robert Johnson?</t>
-  </si>
-  <si>
-    <t>I need to know the number of visits for a patient with the email address williambrown@example.com.</t>
-  </si>
-  <si>
-    <t>SELECT number_of_visits FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'williambrown@example.com');</t>
-  </si>
-  <si>
     <t>Can you provide me with the last visit date for a patient named Emily Davis?</t>
   </si>
   <si>
@@ -340,24 +310,9 @@
     <t>I need to know the date of registration for a patient with the email address emilydavis@example.com.</t>
   </si>
   <si>
-    <t>SELECT date_of_registration FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'emilydavis@example.com');</t>
-  </si>
-  <si>
     <t>I need to know the last visit date for a patient with the email address robertjohnson@example.com.</t>
   </si>
   <si>
-    <t>SELECT last_visit_date FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'robertjohnson@example.com');</t>
-  </si>
-  <si>
-    <t>Can you provide me with the date of registration for a patient named Emily Davis?</t>
-  </si>
-  <si>
-    <t>Can you provide me with the medical record number for a patient named Emily Davis?</t>
-  </si>
-  <si>
-    <t>SELECT medical_record_number FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE first_name = 'Emily' AND last_name = 'Davis');</t>
-  </si>
-  <si>
     <t>Can you provide the phone number for a patient named Emily Davis?</t>
   </si>
   <si>
@@ -377,6 +332,57 @@
   </si>
   <si>
     <t>SELECT medical_record_number FROM clinic_info WHERE date_of_registration &gt; '2022-01-01' AND date_of_registration &lt;= '2022-12-31');</t>
+  </si>
+  <si>
+    <t>Get the medical record numbers of patients who have visited the clinic less than 5 times.</t>
+  </si>
+  <si>
+    <t>SELECT medical_record_number FROM clinic_info WHERE number_of_visits &lt; 5;</t>
+  </si>
+  <si>
+    <t>I want the phone numbers of patients who visited the clinic for the first time in 2021.</t>
+  </si>
+  <si>
+    <t>Can you show me the names patients who have visited the clinic in the last 30 days?</t>
+  </si>
+  <si>
+    <t>SELECT p.first_name, p.last_name FROM patients p INNER JOIN clinic_info c ON p.id = c.patient_id WHERE c.last_visit_date &gt;= CURRENT_DATE - INTERVAL '30 days';</t>
+  </si>
+  <si>
+    <t>SELECT c.medical_record_number FROM patients p JOIN clinic_info c ON p.id = c.patient_id WHERE p.first_name = 'John' AND p.last_name = 'Doe';</t>
+  </si>
+  <si>
+    <t>find the medical_record_number of a person with the name John Doe</t>
+  </si>
+  <si>
+    <t>Can you provide me with the medical record number for a patient named Elizabeth Johnson?</t>
+  </si>
+  <si>
+    <t>Can you provide me with the date of registration for a patient named Linda Wilson?</t>
+  </si>
+  <si>
+    <t>SELECT last_visit_date FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'james.taylor@gmail.com');</t>
+  </si>
+  <si>
+    <t>SELECT date_of_registration FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE first_name = 'Linda' AND last_name = 'Wilson');</t>
+  </si>
+  <si>
+    <t>SELECT medical_record_number FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE first_name = 'Elizabeth' AND last_name = 'Johnson');</t>
+  </si>
+  <si>
+    <t>Can you provide me with the medical record number of a patient named Robert Jones?</t>
+  </si>
+  <si>
+    <t>SELECT medical_record_number FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE first_name = 'Robert' AND last_name = 'Jones');</t>
+  </si>
+  <si>
+    <t>I need to know the number of visits for a patient with the email address williambrown@outlook.com.</t>
+  </si>
+  <si>
+    <t>SELECT number_of_visits FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'williambrown@outlook.com');</t>
+  </si>
+  <si>
+    <t>SELECT date_of_registration FROM clinic_info WHERE patient_id = (SELECT id FROM patients WHERE email = 'emilydavis@gmail.com');</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,15 +863,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -873,7 +879,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -881,402 +887,402 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
